--- a/src/main/resources/static/file/bao_cao_doanh_thu.xlsx
+++ b/src/main/resources/static/file/bao_cao_doanh_thu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Freshfood\src\main\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D1B9B-DCBA-4059-B7FA-6552202A7D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8501F69-8518-443C-BB14-29EF97459717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D2E4F7DA-F382-4D3B-BAC0-39ACFCD04B4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D2E4F7DA-F382-4D3B-BAC0-39ACFCD04B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Tên đơn vị : Cửa hàng đồ ăn nhanh Freshfood</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve">                                   BÁO CÁO XU HƯỚNG ĐẶT HÀNG  NĂM 2023</t>
+  </si>
+  <si>
+    <t>Trưởng phòng kinh doanh</t>
+  </si>
+  <si>
+    <t>(Ký, ghi rõ họ tên)</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,6 +303,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CCC9B9-C438-4F07-976B-FA38F7EA825E}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,11 +853,48 @@
       <c r="D23" s="19"/>
       <c r="E23" s="4"/>
     </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="E26" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="E28" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A29:B31"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -842,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB1A7B-2D45-4392-A30E-FFBBDB919832}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,10 +1109,48 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
+    <row r="25" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="E25" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="E27" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>